--- a/data/stats/Luka Doncic.xlsx
+++ b/data/stats/Luka Doncic.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1100,6 +1100,56 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>vs San Antonio Spurs</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>17 nov. 2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>G
+110-93</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>16</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6</v>
+      </c>
+      <c r="F15" t="n">
+        <v>6</v>
+      </c>
+      <c r="G15" t="n">
+        <v>28</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>3-7</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>3-9</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>37.5%</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>33.3%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
